--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/KANSAS_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/KANSAS_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D915"/>
+  <dimension ref="A1:D909"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C42">
@@ -1038,7 +1038,7 @@
         <v>61</v>
       </c>
       <c r="D50">
-        <v>0.009756877799104287</v>
+        <v>0.009756877799104289</v>
       </c>
     </row>
     <row r="51">
@@ -1348,7 +1348,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C74">
@@ -1387,7 +1387,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C77">
@@ -1608,7 +1608,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C94">
@@ -1621,7 +1621,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C95">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C96">
@@ -1725,7 +1725,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C103">
@@ -1886,7 +1886,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C115">
@@ -2034,7 +2034,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C126">
@@ -2060,7 +2060,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C145">
@@ -2473,7 +2473,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C159">
@@ -2512,14 +2512,14 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C162">
         <v>58</v>
       </c>
       <c r="D162">
-        <v>0.009277031349968011</v>
+        <v>0.009277031349968013</v>
       </c>
     </row>
     <row r="163">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C169">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C170">
@@ -2629,7 +2629,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C171">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C172">
@@ -2772,12 +2772,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C182">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C188">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C192">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C196">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C198">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C205">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C208">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C221">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C225">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C234">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C235">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C236">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C242">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C245">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C253">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C257">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C259">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C261">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C262">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C263">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C266">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C271">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C275">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C278">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C281">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C287">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C291">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C294">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C301">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C314">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C315">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C317">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C321">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C332">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C338">
@@ -4866,7 +4866,7 @@
         <v>60</v>
       </c>
       <c r="D341">
-        <v>0.009596928982725527</v>
+        <v>0.009596928982725529</v>
       </c>
     </row>
     <row r="342">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C344">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C347">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C348">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C349">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C351">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C353">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C355">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C359">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C360">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C365">
@@ -5241,7 +5241,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C370">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C374">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C375">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C383">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C392">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C397">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C402">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C403">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C404">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C407">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C410">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C411">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C420">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C421">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C426">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C427">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C430">
@@ -7071,7 +7071,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C510">
@@ -7084,7 +7084,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C511">
@@ -7110,7 +7110,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C513">
@@ -7219,7 +7219,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C521">
@@ -7406,7 +7406,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C535">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C538">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C540">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C542">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C544">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C545">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C546">
@@ -7567,7 +7567,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C547">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C548">
@@ -7606,7 +7606,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C550">
@@ -7632,7 +7632,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C552">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C553">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C554">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C555">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C599">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C607">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C608">
@@ -8443,7 +8443,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C614">
@@ -8586,7 +8586,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C625">
@@ -8703,7 +8703,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C634">
@@ -8729,7 +8729,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C636">
@@ -8768,7 +8768,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C639">
@@ -8820,7 +8820,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C643">
@@ -8929,7 +8929,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C651">
@@ -8955,7 +8955,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C653">
@@ -8994,7 +8994,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C656">
@@ -9020,7 +9020,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C658">
@@ -9046,7 +9046,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C660">
@@ -9277,7 +9277,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C677">
@@ -9329,7 +9329,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C681">
@@ -9381,7 +9381,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C685">
@@ -9446,7 +9446,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C690">
@@ -9459,7 +9459,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C691">
@@ -9472,7 +9472,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C692">
@@ -9950,7 +9950,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C728">
@@ -10085,7 +10085,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C738">
@@ -10285,7 +10285,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C753">
@@ -10420,7 +10420,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C763">
@@ -10446,7 +10446,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C765">
@@ -10459,7 +10459,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C766">
@@ -10485,7 +10485,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C768">
@@ -10498,7 +10498,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C769">
@@ -10646,7 +10646,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C780">
@@ -10711,7 +10711,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C785">
@@ -10724,7 +10724,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C786">
@@ -10841,7 +10841,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C795">
@@ -10984,7 +10984,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C806">
@@ -10997,7 +10997,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C807">
@@ -11023,7 +11023,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C809">
@@ -11140,7 +11140,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C818">
@@ -11192,7 +11192,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C822">
@@ -11205,7 +11205,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C823">
@@ -11335,7 +11335,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C833">
@@ -11361,7 +11361,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C835">
@@ -11426,7 +11426,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C840">
@@ -11439,7 +11439,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C841">
@@ -11787,7 +11787,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C867">
@@ -11930,7 +11930,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C878">
@@ -12015,7 +12015,7 @@
         <v>60</v>
       </c>
       <c r="D884">
-        <v>0.009596928982725527</v>
+        <v>0.009596928982725529</v>
       </c>
     </row>
     <row r="885">
@@ -12047,7 +12047,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C887">
@@ -12060,7 +12060,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C888">
@@ -12190,7 +12190,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C898">
@@ -12203,7 +12203,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C899">
@@ -12242,7 +12242,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C902">
@@ -12341,41 +12341,6 @@
       </c>
       <c r="D909">
         <v>1</v>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="915">
-      <c r="A915" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
